--- a/files/xlsx/interface_pc.xlsx
+++ b/files/xlsx/interface_pc.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-35600" yWindow="1640" windowWidth="36840" windowHeight="18060"/>
+    <workbookView xWindow="1800" yWindow="460" windowWidth="39020" windowHeight="20760"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="155">
   <si>
     <t>用例ID</t>
   </si>
@@ -173,7 +173,7 @@
     <t>/front/lottery/draw_info.do</t>
   </si>
   <si>
-    <t>获取彩种玩法</t>
+    <t>投注玩法列表</t>
   </si>
   <si>
     <t>{"lotteryIds":"44"}</t>
@@ -191,12 +191,27 @@
     <t>/front/bet/log_list.do</t>
   </si>
   <si>
+    <t>自动续到下一期</t>
+  </si>
+  <si>
+    <t>{"orderId": "20181221141138126063072"}</t>
+  </si>
+  <si>
+    <t>/front/bet/rebetting.do</t>
+  </si>
+  <si>
     <t>投注</t>
   </si>
   <si>
     <t>/front/bet/betting.do?after=1</t>
   </si>
   <si>
+    <t>更新个人资料</t>
+  </si>
+  <si>
+    <t>/front/personal_center/update.do</t>
+  </si>
+  <si>
     <t>聊天室头像</t>
   </si>
   <si>
@@ -236,6 +251,9 @@
     <t>安全中心-修改登录密码</t>
   </si>
   <si>
+    <t>{"password":"123456","payPassword":"111111"}</t>
+  </si>
+  <si>
     <t>/account/manage/reset_password.do</t>
   </si>
   <si>
@@ -341,6 +359,9 @@
     <t>代理中心-投注明细</t>
   </si>
   <si>
+    <t>count=15&amp;pageNumber=1&amp;pageSize=15&amp;begin=1545321600000&amp;end=1545407999000&amp;account=&amp;status=-1&amp;issue=&amp;orderId=&amp;lotteryId=</t>
+  </si>
+  <si>
     <t>/agent/subordinate/order.do</t>
   </si>
   <si>
@@ -363,71 +384,162 @@
   </si>
   <si>
     <t>/agent/subordinate/list.do</t>
+  </si>
+  <si>
+    <t>在线存款-充值列表(新)</t>
+  </si>
+  <si>
+    <t>/front/recharge/get_deposit_list.do</t>
+  </si>
+  <si>
+    <t>第三方入款</t>
+  </si>
+  <si>
+    <t>{"thirdCode":"xingxpay","thirdMode":"2","thirdId":568,"amount":17}</t>
+  </si>
+  <si>
+    <t>/front/recharge/deposit_third.do</t>
+  </si>
+  <si>
+    <t>银行入款</t>
+  </si>
+  <si>
+    <t>{"bankId":68,"depositor":"你好·吗一","amount":3}</t>
+  </si>
+  <si>
+    <t>/front/recharge/deposit_common.do</t>
+  </si>
+  <si>
+    <t>固码入款</t>
+  </si>
+  <si>
+    <t>{"thirdCode":"SELF_WECHAT_PAY","thirdMode":"SELF_WECHAT_PAY","thirdId":1068,"receiveAccount":"465465465","receiveName":"微信固定","payType":"SELF","depositName":"๑•ิ.•ั๑ ๑๑ ♬✿.｡.:* ☂️☃️ ☄️ ★ ☆","amount":4}</t>
+  </si>
+  <si>
+    <t>/front/recharge/preOrder.do</t>
+  </si>
+  <si>
+    <t>注单总体详情</t>
+  </si>
+  <si>
+    <t>{"orderId":5730060}</t>
+  </si>
+  <si>
+    <t>/front/bet/log_detail.do</t>
+  </si>
+  <si>
+    <t>注单列表详情接口</t>
+  </si>
+  <si>
+    <t>{"orderId":5730060,"page":1}</t>
+  </si>
+  <si>
+    <t>/front/bet/log_detail_list.do</t>
+  </si>
+  <si>
+    <t>设置银行卡</t>
+  </si>
+  <si>
+    <t>{"payee":"对对对","receivingBank":"中国农业银行","bankAccount":"123123123123123123","bankAddress":"是的发送到发送到发斯蒂芬","payPassword":"123456"}</t>
+  </si>
+  <si>
+    <t>/account/manage/complete_bankinfo.do</t>
+  </si>
+  <si>
+    <t>form格式</t>
+    <rPh sb="0" eb="2">
+      <t>staa</t>
+    </rPh>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>是</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>{"playId":856,"issue":"436769","rebate":0,"unitFee":200,"numbers":"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF222222"/>
+        <rFont val="SimSun"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>大</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF222222"/>
+        <rFont val="Consolas"/>
+        <family val="2"/>
+      </rPr>
+      <t>"}</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"lotteryId":-2,"status":-1,"needJSON":1,"startTime":"2018-12-21 00:00:00","endTime":"2018-12-21 23:59:59","issue":"","page":1,"pageSize":10}</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"status":-1,"needJSON":1,"startTime":"2018-12-16 00:00:00","endTime":"2018-12-21 23:59:59","page":1,"pageSize":10}</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"needJSON":1,"startTime":"2018-12-21 00:00:00","endTime":"2018-12-21 23:59:59","page":1,"pageSize":10}</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"begin":1545321600000,"end":1545407999000,"account":None}</t>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>是否测试</t>
     <rPh sb="0" eb="1">
       <t>gik</t>
     </rPh>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"account":"well","password":"123123"}</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"playId":856,"issue":"436769","rebate":0,"unitFee":200,"numbers":"大"}</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"password":"123123","payPassword":"123123"}</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"lotteryId":-2,"status":-1,"needJSON":1,"startTime":"2018-12-21 00:00:00","endTime":"2018-12-21 23:59:59","issue":"","page":1,"pageSize":10}</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"needJSON":1,"startTime":"2018-12-21 00:00:00","endTime":"2018-12-21 23:59:59","page":1,"pageSize":10}</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"begin":1545321600000,"end":1545407999000,"account":None}</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>是</t>
+    <rPh sb="0" eb="1">
+      <t>gik</t>
+    </rPh>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>是</t>
+    <rPh sb="0" eb="1">
+      <t>j</t>
+    </rPh>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"account":"1001","password":"111111"}</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>是</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>POST</t>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>{"begin":1545321600000,"end":1545407999000,"pageNumber":1,"pageSize":15,"type":None,"account":None}</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"status":-1,"needJSON":1,"startTime":"2018-12-16 00:00:00","endTime":"2018-12-21 23:59:59","page":1,"pageSize":10}</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>form格式</t>
-    <rPh sb="0" eb="2">
-      <t>staa</t>
-    </rPh>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>是</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>/agent/subordinate/order.do</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>count=15&amp;pageNumber=1&amp;pageSize=15&amp;begin=1545321600000&amp;end=1545407999000&amp;account=&amp;status=-1&amp;issue=&amp;orderId=&amp;lotteryId=</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="5">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -451,6 +563,28 @@
       <family val="2"/>
     </font>
     <font>
+      <sz val="12"/>
+      <color rgb="FF333333"/>
+      <name val="Helvetica"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="9"/>
       <name val="宋体"/>
       <family val="3"/>
@@ -464,6 +598,13 @@
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF222222"/>
+      <name val="SimSun"/>
+      <family val="3"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="2">
@@ -488,7 +629,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -507,10 +648,16 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -817,17 +964,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H64"/>
+  <dimension ref="A1:H56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="H44" sqref="H44"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="C44" sqref="C44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
     <col min="1" max="1" width="9" style="2"/>
     <col min="2" max="2" width="36.1640625" style="3" customWidth="1"/>
-    <col min="3" max="3" width="126.83203125" style="3" customWidth="1"/>
+    <col min="3" max="3" width="150.5" style="3" customWidth="1"/>
     <col min="4" max="4" width="41.1640625" style="3" customWidth="1"/>
     <col min="5" max="5" width="12.6640625" style="3" customWidth="1"/>
     <col min="6" max="6" width="20.1640625" style="3" customWidth="1"/>
@@ -853,11 +1000,11 @@
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>123</v>
+      <c r="G1" s="8" t="s">
+        <v>148</v>
+      </c>
+      <c r="H1" s="8" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -1080,7 +1227,7 @@
         <v>8</v>
       </c>
       <c r="F12" s="2">
-        <v>0</v>
+        <v>101</v>
       </c>
       <c r="G12" s="3" t="s">
         <v>9</v>
@@ -1100,7 +1247,7 @@
         <v>8</v>
       </c>
       <c r="F13" s="2">
-        <v>0</v>
+        <v>304</v>
       </c>
       <c r="G13" s="3" t="s">
         <v>9</v>
@@ -1199,7 +1346,7 @@
       <c r="B18" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="D18" s="5" t="s">
+      <c r="D18" s="4" t="s">
         <v>44</v>
       </c>
       <c r="E18" s="3" t="s">
@@ -1219,10 +1366,10 @@
       <c r="B19" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="C19" s="5" t="s">
-        <v>115</v>
-      </c>
-      <c r="D19" s="5" t="s">
+      <c r="C19" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="D19" s="4" t="s">
         <v>46</v>
       </c>
       <c r="E19" s="3" t="s">
@@ -1242,10 +1389,10 @@
       <c r="B20" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="C20" s="5" t="s">
+      <c r="C20" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="D20" s="5" t="s">
+      <c r="D20" s="4" t="s">
         <v>49</v>
       </c>
       <c r="E20" s="3" t="s">
@@ -1265,10 +1412,10 @@
       <c r="B21" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="C21" s="5" t="s">
+      <c r="C21" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="D21" s="5" t="s">
+      <c r="D21" s="4" t="s">
         <v>52</v>
       </c>
       <c r="E21" s="3" t="s">
@@ -1288,20 +1435,20 @@
       <c r="B22" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="C22" s="5" t="s">
+      <c r="C22" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="D22" s="5" t="s">
+      <c r="D22" s="4" t="s">
         <v>55</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>8</v>
+        <v>153</v>
       </c>
       <c r="F22" s="2">
         <v>0</v>
       </c>
-      <c r="G22" s="3" t="s">
-        <v>9</v>
+      <c r="G22" s="9" t="s">
+        <v>152</v>
       </c>
     </row>
     <row r="23" spans="1:7">
@@ -1311,20 +1458,20 @@
       <c r="B23" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="C23" s="5" t="s">
-        <v>116</v>
-      </c>
-      <c r="D23" s="5" t="s">
+      <c r="C23" s="4" t="s">
         <v>57</v>
       </c>
+      <c r="D23" s="4" t="s">
+        <v>58</v>
+      </c>
       <c r="E23" s="3" t="s">
-        <v>8</v>
+        <v>153</v>
       </c>
       <c r="F23" s="2">
-        <v>112</v>
-      </c>
-      <c r="G23" s="3" t="s">
-        <v>9</v>
+        <v>0</v>
+      </c>
+      <c r="G23" s="9" t="s">
+        <v>152</v>
       </c>
     </row>
     <row r="24" spans="1:7">
@@ -1332,16 +1479,19 @@
         <v>24</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="D24" s="5" t="s">
         <v>59</v>
       </c>
+      <c r="C24" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="D24" s="4" t="s">
+        <v>60</v>
+      </c>
       <c r="E24" s="3" t="s">
         <v>8</v>
       </c>
       <c r="F24" s="2">
-        <v>0</v>
+        <v>112</v>
       </c>
       <c r="G24" s="3" t="s">
         <v>9</v>
@@ -1352,11 +1502,9 @@
         <v>25</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="C25" s="5" t="s">
         <v>61</v>
       </c>
+      <c r="C25" s="4"/>
       <c r="D25" s="5" t="s">
         <v>62</v>
       </c>
@@ -1377,7 +1525,7 @@
       <c r="B26" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="D26" s="5" t="s">
+      <c r="D26" s="4" t="s">
         <v>64</v>
       </c>
       <c r="E26" s="3" t="s">
@@ -1397,8 +1545,11 @@
       <c r="B27" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="D27" s="5" t="s">
+      <c r="C27" s="4" t="s">
         <v>66</v>
+      </c>
+      <c r="D27" s="4" t="s">
+        <v>67</v>
       </c>
       <c r="E27" s="3" t="s">
         <v>8</v>
@@ -1415,12 +1566,9 @@
         <v>28</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="C28" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="D28" s="5" t="s">
+      <c r="D28" s="4" t="s">
         <v>69</v>
       </c>
       <c r="E28" s="3" t="s">
@@ -1440,10 +1588,7 @@
       <c r="B29" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="C29" s="5" t="s">
-        <v>117</v>
-      </c>
-      <c r="D29" s="5" t="s">
+      <c r="D29" s="4" t="s">
         <v>71</v>
       </c>
       <c r="E29" s="3" t="s">
@@ -1463,11 +1608,11 @@
       <c r="B30" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="C30" s="5" t="s">
-        <v>117</v>
-      </c>
-      <c r="D30" s="5" t="s">
+      <c r="C30" s="4" t="s">
         <v>73</v>
+      </c>
+      <c r="D30" s="4" t="s">
+        <v>74</v>
       </c>
       <c r="E30" s="3" t="s">
         <v>8</v>
@@ -1484,19 +1629,19 @@
         <v>31</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="C31" s="5" t="s">
-        <v>118</v>
-      </c>
-      <c r="D31" s="5" t="s">
-        <v>55</v>
+        <v>75</v>
+      </c>
+      <c r="C31" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="D31" s="4" t="s">
+        <v>77</v>
       </c>
       <c r="E31" s="3" t="s">
         <v>8</v>
       </c>
       <c r="F31" s="2">
-        <v>0</v>
+        <v>204</v>
       </c>
       <c r="G31" s="3" t="s">
         <v>9</v>
@@ -1507,19 +1652,19 @@
         <v>32</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="C32" s="5" t="s">
-        <v>122</v>
-      </c>
-      <c r="D32" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="C32" s="4" t="s">
         <v>76</v>
       </c>
+      <c r="D32" s="4" t="s">
+        <v>79</v>
+      </c>
       <c r="E32" s="3" t="s">
         <v>8</v>
       </c>
       <c r="F32" s="2">
-        <v>0</v>
+        <v>204</v>
       </c>
       <c r="G32" s="3" t="s">
         <v>9</v>
@@ -1530,13 +1675,13 @@
         <v>33</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="C33" s="5" t="s">
-        <v>122</v>
-      </c>
-      <c r="D33" s="5" t="s">
-        <v>78</v>
+        <v>80</v>
+      </c>
+      <c r="C33" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="D33" s="4" t="s">
+        <v>55</v>
       </c>
       <c r="E33" s="3" t="s">
         <v>8</v>
@@ -1553,13 +1698,13 @@
         <v>34</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="C34" s="5" t="s">
-        <v>119</v>
-      </c>
-      <c r="D34" s="5" t="s">
-        <v>80</v>
+        <v>81</v>
+      </c>
+      <c r="C34" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="D34" s="4" t="s">
+        <v>82</v>
       </c>
       <c r="E34" s="3" t="s">
         <v>8</v>
@@ -1576,13 +1721,13 @@
         <v>35</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="C35" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="D35" s="5" t="s">
         <v>83</v>
+      </c>
+      <c r="C35" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="D35" s="4" t="s">
+        <v>84</v>
       </c>
       <c r="E35" s="3" t="s">
         <v>8</v>
@@ -1599,12 +1744,12 @@
         <v>36</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="C36" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="D36" s="6" t="s">
+      <c r="C36" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="D36" s="4" t="s">
         <v>86</v>
       </c>
       <c r="E36" s="3" t="s">
@@ -1624,10 +1769,10 @@
       <c r="B37" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="C37" s="6" t="s">
+      <c r="C37" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="D37" s="6" t="s">
+      <c r="D37" s="4" t="s">
         <v>89</v>
       </c>
       <c r="E37" s="3" t="s">
@@ -1694,10 +1839,10 @@
         <v>96</v>
       </c>
       <c r="C40" s="6" t="s">
-        <v>120</v>
+        <v>97</v>
       </c>
       <c r="D40" s="6" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="E40" s="3" t="s">
         <v>8</v>
@@ -1714,13 +1859,13 @@
         <v>41</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C41" s="6" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D41" s="6" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E41" s="3" t="s">
         <v>8</v>
@@ -1737,13 +1882,13 @@
         <v>42</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C42" s="6" t="s">
-        <v>121</v>
+        <v>147</v>
       </c>
       <c r="D42" s="6" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="E42" s="3" t="s">
         <v>8</v>
@@ -1760,10 +1905,13 @@
         <v>43</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>103</v>
+        <v>104</v>
+      </c>
+      <c r="C43" s="6" t="s">
+        <v>105</v>
       </c>
       <c r="D43" s="6" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E43" s="3" t="s">
         <v>8</v>
@@ -1780,13 +1928,13 @@
         <v>44</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="C44" s="6" t="s">
-        <v>126</v>
+        <v>154</v>
       </c>
       <c r="D44" s="6" t="s">
-        <v>125</v>
+        <v>108</v>
       </c>
       <c r="E44" s="3" t="s">
         <v>8</v>
@@ -1797,19 +1945,17 @@
       <c r="G44" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="H44" s="7" t="s">
-        <v>124</v>
-      </c>
+      <c r="H44" s="9"/>
     </row>
     <row r="45" spans="1:8">
       <c r="A45" s="2">
         <v>45</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="D45" s="6" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E45" s="3" t="s">
         <v>8</v>
@@ -1826,13 +1972,13 @@
         <v>46</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="C46" s="6" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="D46" s="6" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="E46" s="3" t="s">
         <v>8</v>
@@ -1841,10 +1987,10 @@
         <v>0</v>
       </c>
       <c r="G46" s="3" t="s">
-        <v>124</v>
-      </c>
-      <c r="H46" s="7" t="s">
-        <v>124</v>
+        <v>9</v>
+      </c>
+      <c r="H46" s="9" t="s">
+        <v>142</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -1852,13 +1998,10 @@
         <v>47</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="C47" s="6" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="D47" s="6" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="E47" s="3" t="s">
         <v>8</v>
@@ -1868,98 +2011,220 @@
       </c>
       <c r="G47" s="3" t="s">
         <v>9</v>
-      </c>
-      <c r="H47" s="3" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="48" spans="1:8">
       <c r="A48" s="2">
         <v>48</v>
       </c>
-    </row>
-    <row r="49" spans="1:1">
+      <c r="B48" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="C48" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="D48" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="E48" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F48" s="2">
+        <v>0</v>
+      </c>
+      <c r="G48" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="H48" s="9" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8">
       <c r="A49" s="2">
         <v>49</v>
       </c>
-    </row>
-    <row r="50" spans="1:1">
+      <c r="B49" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="C49" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="D49" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="E49" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F49" s="2">
+        <v>0</v>
+      </c>
+      <c r="G49" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="H49" s="9" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8">
       <c r="A50" s="2">
         <v>50</v>
       </c>
-    </row>
-    <row r="51" spans="1:1">
+      <c r="B50" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="D50" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="E50" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F50" s="3">
+        <v>0</v>
+      </c>
+      <c r="G50" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8">
       <c r="A51" s="2">
         <v>51</v>
       </c>
-    </row>
-    <row r="52" spans="1:1">
+      <c r="B51" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="C51" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="D51" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="E51" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F51" s="3">
+        <v>0</v>
+      </c>
+      <c r="G51" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8">
       <c r="A52" s="2">
         <v>52</v>
       </c>
-    </row>
-    <row r="53" spans="1:1">
+      <c r="B52" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="C52" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="D52" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="E52" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F52" s="3">
+        <v>0</v>
+      </c>
+      <c r="G52" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8">
       <c r="A53" s="2">
         <v>53</v>
       </c>
-    </row>
-    <row r="54" spans="1:1">
+      <c r="B53" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="C53" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="D53" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="E53" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F53" s="3">
+        <v>0</v>
+      </c>
+      <c r="G53" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8">
       <c r="A54" s="2">
         <v>54</v>
       </c>
-    </row>
-    <row r="55" spans="1:1">
+      <c r="B54" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="C54" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="D54" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="E54" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F54" s="3">
+        <v>0</v>
+      </c>
+      <c r="G54" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" ht="16">
       <c r="A55" s="2">
         <v>55</v>
       </c>
-    </row>
-    <row r="56" spans="1:1">
+      <c r="B55" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="C55" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="D55" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="E55" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F55" s="3">
+        <v>0</v>
+      </c>
+      <c r="G55" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8">
       <c r="A56" s="2">
         <v>56</v>
       </c>
-    </row>
-    <row r="57" spans="1:1">
-      <c r="A57" s="2">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="58" spans="1:1">
-      <c r="A58" s="2">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="59" spans="1:1">
-      <c r="A59" s="2">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="60" spans="1:1">
-      <c r="A60" s="2">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="61" spans="1:1">
-      <c r="A61" s="2">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="62" spans="1:1">
-      <c r="A62" s="2">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="63" spans="1:1">
-      <c r="A63" s="2">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="64" spans="1:1">
-      <c r="A64" s="2">
-        <v>64</v>
+      <c r="B56" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="C56" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="D56" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="E56" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F56" s="3">
+        <v>0</v>
+      </c>
+      <c r="G56" s="3" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
+  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
@@ -1973,7 +2238,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
   <sheetData/>
-  <phoneticPr fontId="3" type="noConversion"/>
+  <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
@@ -1987,7 +2252,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
   <sheetData/>
-  <phoneticPr fontId="3" type="noConversion"/>
+  <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>

--- a/files/xlsx/interface_pc.xlsx
+++ b/files/xlsx/interface_pc.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="1800" yWindow="460" windowWidth="39020" windowHeight="20760"/>
+    <workbookView xWindow="1940" yWindow="480" windowWidth="39020" windowHeight="20760"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="155">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267" uniqueCount="156">
   <si>
     <t>用例ID</t>
   </si>
@@ -42,9 +42,6 @@
   </si>
   <si>
     <t>后台配置项</t>
-  </si>
-  <si>
-    <t>/front/homepage/get_sidebar_config.do</t>
   </si>
   <si>
     <t>POST</t>
@@ -532,6 +529,14 @@
   </si>
   <si>
     <t>{"begin":1545321600000,"end":1545407999000,"pageNumber":1,"pageSize":15,"type":None,"account":None}</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"wechat":"asdasdas","userId":127325}</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>/front/homepage/get_sidebar_config.do</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -966,8 +971,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="C44" sqref="C44"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
@@ -1001,10 +1006,10 @@
         <v>5</v>
       </c>
       <c r="G1" s="8" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="H1" s="8" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -1015,16 +1020,16 @@
         <v>6</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>7</v>
+        <v>155</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F2" s="2">
         <v>0</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -1032,19 +1037,19 @@
         <v>3</v>
       </c>
       <c r="B3" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="4" t="s">
-        <v>11</v>
-      </c>
       <c r="E3" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F3" s="2">
         <v>0</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -1052,19 +1057,19 @@
         <v>4</v>
       </c>
       <c r="B4" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="D4" s="4" t="s">
-        <v>13</v>
-      </c>
       <c r="E4" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F4" s="2">
         <v>0</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -1072,22 +1077,22 @@
         <v>5</v>
       </c>
       <c r="B5" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="D5" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="D5" s="4" t="s">
-        <v>16</v>
-      </c>
       <c r="E5" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F5" s="2">
         <v>0</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -1095,19 +1100,19 @@
         <v>6</v>
       </c>
       <c r="B6" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="D6" s="4" t="s">
-        <v>18</v>
-      </c>
       <c r="E6" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F6" s="2">
         <v>0</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -1115,19 +1120,19 @@
         <v>7</v>
       </c>
       <c r="B7" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D7" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="D7" s="4" t="s">
-        <v>20</v>
-      </c>
       <c r="E7" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F7" s="2">
         <v>0</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -1135,19 +1140,19 @@
         <v>8</v>
       </c>
       <c r="B8" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D8" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="D8" s="4" t="s">
-        <v>22</v>
-      </c>
       <c r="E8" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F8" s="2">
         <v>0</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -1155,19 +1160,19 @@
         <v>9</v>
       </c>
       <c r="B9" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D9" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="D9" s="4" t="s">
-        <v>24</v>
-      </c>
       <c r="E9" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F9" s="2">
         <v>0</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -1175,19 +1180,19 @@
         <v>10</v>
       </c>
       <c r="B10" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="D10" s="4" t="s">
-        <v>26</v>
-      </c>
       <c r="E10" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F10" s="2">
         <v>0</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -1195,22 +1200,22 @@
         <v>11</v>
       </c>
       <c r="B11" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C11" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="C11" s="4" t="s">
+      <c r="D11" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="D11" s="4" t="s">
-        <v>29</v>
-      </c>
       <c r="E11" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F11" s="2">
         <v>0</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -1218,19 +1223,19 @@
         <v>12</v>
       </c>
       <c r="B12" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D12" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="D12" s="4" t="s">
-        <v>31</v>
-      </c>
       <c r="E12" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F12" s="2">
         <v>101</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -1238,19 +1243,19 @@
         <v>13</v>
       </c>
       <c r="B13" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D13" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="D13" s="4" t="s">
-        <v>33</v>
-      </c>
       <c r="E13" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F13" s="2">
         <v>304</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -1258,19 +1263,19 @@
         <v>14</v>
       </c>
       <c r="B14" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D14" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="D14" s="4" t="s">
-        <v>35</v>
-      </c>
       <c r="E14" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F14" s="2">
         <v>0</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -1278,19 +1283,19 @@
         <v>15</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F15" s="2">
         <v>0</v>
       </c>
       <c r="G15" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -1298,22 +1303,22 @@
         <v>16</v>
       </c>
       <c r="B16" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C16" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="C16" s="4" t="s">
+      <c r="D16" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="D16" s="4" t="s">
-        <v>39</v>
-      </c>
       <c r="E16" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F16" s="2">
         <v>0</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -1321,22 +1326,22 @@
         <v>17</v>
       </c>
       <c r="B17" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C17" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="C17" s="4" t="s">
+      <c r="D17" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="D17" s="4" t="s">
-        <v>42</v>
-      </c>
       <c r="E17" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F17" s="2">
         <v>0</v>
       </c>
       <c r="G17" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -1344,19 +1349,19 @@
         <v>18</v>
       </c>
       <c r="B18" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="D18" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="D18" s="4" t="s">
-        <v>44</v>
-      </c>
       <c r="E18" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F18" s="2">
         <v>0</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -1364,22 +1369,22 @@
         <v>19</v>
       </c>
       <c r="B19" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="D19" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="C19" s="4" t="s">
-        <v>151</v>
-      </c>
-      <c r="D19" s="4" t="s">
-        <v>46</v>
-      </c>
       <c r="E19" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F19" s="2">
         <v>0</v>
       </c>
       <c r="G19" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -1387,22 +1392,22 @@
         <v>20</v>
       </c>
       <c r="B20" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="C20" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="C20" s="4" t="s">
+      <c r="D20" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="D20" s="4" t="s">
-        <v>49</v>
-      </c>
       <c r="E20" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F20" s="2">
         <v>0</v>
       </c>
       <c r="G20" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -1410,22 +1415,22 @@
         <v>21</v>
       </c>
       <c r="B21" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C21" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="C21" s="4" t="s">
+      <c r="D21" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="D21" s="4" t="s">
-        <v>52</v>
-      </c>
       <c r="E21" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F21" s="2">
         <v>0</v>
       </c>
       <c r="G21" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="22" spans="1:7">
@@ -1433,22 +1438,22 @@
         <v>22</v>
       </c>
       <c r="B22" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="C22" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="C22" s="4" t="s">
+      <c r="D22" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="D22" s="4" t="s">
-        <v>55</v>
-      </c>
       <c r="E22" s="3" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="F22" s="2">
         <v>0</v>
       </c>
       <c r="G22" s="9" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="23" spans="1:7">
@@ -1456,22 +1461,22 @@
         <v>23</v>
       </c>
       <c r="B23" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="C23" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="C23" s="4" t="s">
+      <c r="D23" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="D23" s="4" t="s">
-        <v>58</v>
-      </c>
       <c r="E23" s="3" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="F23" s="2">
         <v>0</v>
       </c>
       <c r="G23" s="9" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="24" spans="1:7">
@@ -1479,22 +1484,22 @@
         <v>24</v>
       </c>
       <c r="B24" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="D24" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="C24" s="4" t="s">
-        <v>143</v>
-      </c>
-      <c r="D24" s="4" t="s">
-        <v>60</v>
-      </c>
       <c r="E24" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F24" s="2">
         <v>112</v>
       </c>
       <c r="G24" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="25" spans="1:7">
@@ -1502,20 +1507,22 @@
         <v>25</v>
       </c>
       <c r="B25" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="D25" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="C25" s="4"/>
-      <c r="D25" s="5" t="s">
-        <v>62</v>
-      </c>
       <c r="E25" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F25" s="2">
         <v>0</v>
       </c>
       <c r="G25" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="26" spans="1:7">
@@ -1523,19 +1530,19 @@
         <v>26</v>
       </c>
       <c r="B26" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="D26" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="D26" s="4" t="s">
-        <v>64</v>
-      </c>
       <c r="E26" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F26" s="2">
         <v>0</v>
       </c>
       <c r="G26" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="27" spans="1:7">
@@ -1543,22 +1550,22 @@
         <v>27</v>
       </c>
       <c r="B27" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="C27" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="C27" s="4" t="s">
+      <c r="D27" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="D27" s="4" t="s">
-        <v>67</v>
-      </c>
       <c r="E27" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F27" s="2">
         <v>0</v>
       </c>
       <c r="G27" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="28" spans="1:7">
@@ -1566,19 +1573,19 @@
         <v>28</v>
       </c>
       <c r="B28" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="D28" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="D28" s="4" t="s">
-        <v>69</v>
-      </c>
       <c r="E28" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F28" s="2">
         <v>0</v>
       </c>
       <c r="G28" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="29" spans="1:7">
@@ -1586,19 +1593,19 @@
         <v>29</v>
       </c>
       <c r="B29" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="D29" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="D29" s="4" t="s">
-        <v>71</v>
-      </c>
       <c r="E29" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F29" s="2">
         <v>0</v>
       </c>
       <c r="G29" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="30" spans="1:7">
@@ -1606,22 +1613,22 @@
         <v>30</v>
       </c>
       <c r="B30" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="C30" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="C30" s="4" t="s">
+      <c r="D30" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="D30" s="4" t="s">
-        <v>74</v>
-      </c>
       <c r="E30" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F30" s="2">
         <v>0</v>
       </c>
       <c r="G30" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="31" spans="1:7">
@@ -1629,22 +1636,22 @@
         <v>31</v>
       </c>
       <c r="B31" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="C31" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="C31" s="4" t="s">
+      <c r="D31" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="D31" s="4" t="s">
-        <v>77</v>
-      </c>
       <c r="E31" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F31" s="2">
         <v>204</v>
       </c>
       <c r="G31" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="32" spans="1:7">
@@ -1652,22 +1659,22 @@
         <v>32</v>
       </c>
       <c r="B32" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="C32" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="D32" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="C32" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="D32" s="4" t="s">
-        <v>79</v>
-      </c>
       <c r="E32" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F32" s="2">
         <v>204</v>
       </c>
       <c r="G32" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1675,22 +1682,22 @@
         <v>33</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D33" s="4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E33" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F33" s="2">
         <v>0</v>
       </c>
       <c r="G33" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1698,22 +1705,22 @@
         <v>34</v>
       </c>
       <c r="B34" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="C34" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="D34" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="C34" s="4" t="s">
-        <v>145</v>
-      </c>
-      <c r="D34" s="4" t="s">
-        <v>82</v>
-      </c>
       <c r="E34" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F34" s="2">
         <v>0</v>
       </c>
       <c r="G34" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1721,22 +1728,22 @@
         <v>35</v>
       </c>
       <c r="B35" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="C35" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="D35" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="C35" s="4" t="s">
-        <v>145</v>
-      </c>
-      <c r="D35" s="4" t="s">
-        <v>84</v>
-      </c>
       <c r="E35" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F35" s="2">
         <v>0</v>
       </c>
       <c r="G35" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1744,22 +1751,22 @@
         <v>36</v>
       </c>
       <c r="B36" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="C36" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="D36" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="C36" s="4" t="s">
-        <v>146</v>
-      </c>
-      <c r="D36" s="4" t="s">
-        <v>86</v>
-      </c>
       <c r="E36" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F36" s="2">
         <v>0</v>
       </c>
       <c r="G36" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1767,22 +1774,22 @@
         <v>37</v>
       </c>
       <c r="B37" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="C37" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="C37" s="4" t="s">
+      <c r="D37" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="D37" s="4" t="s">
-        <v>89</v>
-      </c>
       <c r="E37" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F37" s="2">
         <v>0</v>
       </c>
       <c r="G37" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1790,22 +1797,22 @@
         <v>38</v>
       </c>
       <c r="B38" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="C38" s="6" t="s">
         <v>90</v>
       </c>
-      <c r="C38" s="6" t="s">
+      <c r="D38" s="6" t="s">
         <v>91</v>
       </c>
-      <c r="D38" s="6" t="s">
-        <v>92</v>
-      </c>
       <c r="E38" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F38" s="2">
         <v>0</v>
       </c>
       <c r="G38" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1813,22 +1820,22 @@
         <v>39</v>
       </c>
       <c r="B39" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="C39" s="6" t="s">
         <v>93</v>
       </c>
-      <c r="C39" s="6" t="s">
+      <c r="D39" s="6" t="s">
         <v>94</v>
       </c>
-      <c r="D39" s="6" t="s">
-        <v>95</v>
-      </c>
       <c r="E39" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F39" s="2">
         <v>0</v>
       </c>
       <c r="G39" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1836,22 +1843,22 @@
         <v>40</v>
       </c>
       <c r="B40" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="C40" s="6" t="s">
         <v>96</v>
       </c>
-      <c r="C40" s="6" t="s">
+      <c r="D40" s="6" t="s">
         <v>97</v>
       </c>
-      <c r="D40" s="6" t="s">
-        <v>98</v>
-      </c>
       <c r="E40" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F40" s="2">
         <v>0</v>
       </c>
       <c r="G40" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1859,22 +1866,22 @@
         <v>41</v>
       </c>
       <c r="B41" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="C41" s="6" t="s">
         <v>99</v>
       </c>
-      <c r="C41" s="6" t="s">
+      <c r="D41" s="6" t="s">
         <v>100</v>
       </c>
-      <c r="D41" s="6" t="s">
-        <v>101</v>
-      </c>
       <c r="E41" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F41" s="2">
         <v>0</v>
       </c>
       <c r="G41" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1882,22 +1889,22 @@
         <v>42</v>
       </c>
       <c r="B42" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="C42" s="6" t="s">
+        <v>146</v>
+      </c>
+      <c r="D42" s="6" t="s">
         <v>102</v>
       </c>
-      <c r="C42" s="6" t="s">
-        <v>147</v>
-      </c>
-      <c r="D42" s="6" t="s">
-        <v>103</v>
-      </c>
       <c r="E42" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F42" s="2">
         <v>0</v>
       </c>
       <c r="G42" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1905,22 +1912,22 @@
         <v>43</v>
       </c>
       <c r="B43" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="C43" s="6" t="s">
         <v>104</v>
       </c>
-      <c r="C43" s="6" t="s">
+      <c r="D43" s="6" t="s">
         <v>105</v>
       </c>
-      <c r="D43" s="6" t="s">
-        <v>106</v>
-      </c>
       <c r="E43" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F43" s="2">
         <v>0</v>
       </c>
       <c r="G43" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -1928,22 +1935,22 @@
         <v>44</v>
       </c>
       <c r="B44" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="C44" s="6" t="s">
+        <v>153</v>
+      </c>
+      <c r="D44" s="6" t="s">
         <v>107</v>
       </c>
-      <c r="C44" s="6" t="s">
-        <v>154</v>
-      </c>
-      <c r="D44" s="6" t="s">
-        <v>108</v>
-      </c>
       <c r="E44" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F44" s="2">
         <v>0</v>
       </c>
       <c r="G44" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H44" s="9"/>
     </row>
@@ -1952,19 +1959,19 @@
         <v>45</v>
       </c>
       <c r="B45" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="D45" s="6" t="s">
         <v>109</v>
       </c>
-      <c r="D45" s="6" t="s">
-        <v>110</v>
-      </c>
       <c r="E45" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F45" s="2">
         <v>0</v>
       </c>
       <c r="G45" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -1972,25 +1979,25 @@
         <v>46</v>
       </c>
       <c r="B46" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="C46" s="6" t="s">
         <v>111</v>
       </c>
-      <c r="C46" s="6" t="s">
+      <c r="D46" s="6" t="s">
         <v>112</v>
       </c>
-      <c r="D46" s="6" t="s">
-        <v>113</v>
-      </c>
       <c r="E46" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F46" s="2">
         <v>0</v>
       </c>
       <c r="G46" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H46" s="9" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -1998,19 +2005,19 @@
         <v>47</v>
       </c>
       <c r="B47" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="D47" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="D47" s="6" t="s">
-        <v>115</v>
-      </c>
       <c r="E47" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F47" s="2">
         <v>0</v>
       </c>
       <c r="G47" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -2018,25 +2025,25 @@
         <v>48</v>
       </c>
       <c r="B48" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="C48" s="6" t="s">
         <v>116</v>
       </c>
-      <c r="C48" s="6" t="s">
-        <v>117</v>
-      </c>
       <c r="D48" s="6" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E48" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F48" s="2">
         <v>0</v>
       </c>
       <c r="G48" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H48" s="9" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -2044,25 +2051,25 @@
         <v>49</v>
       </c>
       <c r="B49" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="C49" s="6" t="s">
         <v>118</v>
       </c>
-      <c r="C49" s="6" t="s">
+      <c r="D49" s="6" t="s">
         <v>119</v>
       </c>
-      <c r="D49" s="6" t="s">
-        <v>120</v>
-      </c>
       <c r="E49" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F49" s="2">
         <v>0</v>
       </c>
       <c r="G49" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H49" s="9" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -2070,19 +2077,19 @@
         <v>50</v>
       </c>
       <c r="B50" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="D50" s="5" t="s">
         <v>121</v>
       </c>
-      <c r="D50" s="5" t="s">
-        <v>122</v>
-      </c>
       <c r="E50" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F50" s="3">
         <v>0</v>
       </c>
       <c r="G50" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -2090,22 +2097,22 @@
         <v>51</v>
       </c>
       <c r="B51" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="C51" s="5" t="s">
         <v>123</v>
       </c>
-      <c r="C51" s="5" t="s">
+      <c r="D51" s="5" t="s">
         <v>124</v>
       </c>
-      <c r="D51" s="5" t="s">
-        <v>125</v>
-      </c>
       <c r="E51" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F51" s="3">
         <v>0</v>
       </c>
       <c r="G51" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -2113,22 +2120,22 @@
         <v>52</v>
       </c>
       <c r="B52" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="C52" s="5" t="s">
         <v>126</v>
       </c>
-      <c r="C52" s="5" t="s">
+      <c r="D52" s="5" t="s">
         <v>127</v>
       </c>
-      <c r="D52" s="5" t="s">
-        <v>128</v>
-      </c>
       <c r="E52" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F52" s="3">
         <v>0</v>
       </c>
       <c r="G52" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -2136,22 +2143,22 @@
         <v>53</v>
       </c>
       <c r="B53" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="C53" s="5" t="s">
         <v>129</v>
       </c>
-      <c r="C53" s="5" t="s">
+      <c r="D53" s="5" t="s">
         <v>130</v>
       </c>
-      <c r="D53" s="5" t="s">
-        <v>131</v>
-      </c>
       <c r="E53" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F53" s="3">
         <v>0</v>
       </c>
       <c r="G53" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -2159,22 +2166,22 @@
         <v>54</v>
       </c>
       <c r="B54" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="C54" s="5" t="s">
         <v>132</v>
       </c>
-      <c r="C54" s="5" t="s">
+      <c r="D54" s="3" t="s">
         <v>133</v>
       </c>
-      <c r="D54" s="3" t="s">
-        <v>134</v>
-      </c>
       <c r="E54" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F54" s="3">
         <v>0</v>
       </c>
       <c r="G54" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="55" spans="1:8" ht="16">
@@ -2182,22 +2189,22 @@
         <v>55</v>
       </c>
       <c r="B55" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="C55" s="5" t="s">
         <v>135</v>
       </c>
-      <c r="C55" s="5" t="s">
+      <c r="D55" s="3" t="s">
         <v>136</v>
       </c>
-      <c r="D55" s="3" t="s">
-        <v>137</v>
-      </c>
       <c r="E55" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F55" s="3">
         <v>0</v>
       </c>
       <c r="G55" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -2205,22 +2212,22 @@
         <v>56</v>
       </c>
       <c r="B56" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="C56" s="5" t="s">
         <v>138</v>
       </c>
-      <c r="C56" s="5" t="s">
+      <c r="D56" s="3" t="s">
         <v>139</v>
       </c>
-      <c r="D56" s="3" t="s">
-        <v>140</v>
-      </c>
       <c r="E56" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F56" s="3">
         <v>0</v>
       </c>
       <c r="G56" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/files/xlsx/interface_pc.xlsx
+++ b/files/xlsx/interface_pc.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="1940" yWindow="480" windowWidth="39020" windowHeight="20760"/>
+    <workbookView minimized="1" xWindow="-38080" yWindow="460" windowWidth="39020" windowHeight="20760"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267" uniqueCount="156">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="157">
   <si>
     <t>用例ID</t>
   </si>
@@ -194,9 +194,6 @@
     <t>{"orderId": "20181221141138126063072"}</t>
   </si>
   <si>
-    <t>/front/bet/rebetting.do</t>
-  </si>
-  <si>
     <t>投注</t>
   </si>
   <si>
@@ -392,19 +389,10 @@
     <t>第三方入款</t>
   </si>
   <si>
-    <t>{"thirdCode":"xingxpay","thirdMode":"2","thirdId":568,"amount":17}</t>
-  </si>
-  <si>
     <t>/front/recharge/deposit_third.do</t>
   </si>
   <si>
     <t>银行入款</t>
-  </si>
-  <si>
-    <t>{"bankId":68,"depositor":"你好·吗一","amount":3}</t>
-  </si>
-  <si>
-    <t>/front/recharge/deposit_common.do</t>
   </si>
   <si>
     <t>固码入款</t>
@@ -537,6 +525,66 @@
   </si>
   <si>
     <t>/front/homepage/get_sidebar_config.do</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"thirdCode":"xingxpay","thirdMode":"2","thirdId":568,"amount":17}</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>/front/recharge/deposit_common.do</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>/front/bet/rebetting.do</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"userId":117422,"platform":"WEB","version":"1.0.0"}</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>{"bankId":68,"depositor":"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF222222"/>
+        <rFont val="SimSun"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>你好</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF222222"/>
+        <rFont val="Consolas"/>
+        <family val="2"/>
+      </rPr>
+      <t>·</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF222222"/>
+        <rFont val="SimSun"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>吗一</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF222222"/>
+        <rFont val="Consolas"/>
+        <family val="2"/>
+      </rPr>
+      <t>","amount":3}</t>
+    </r>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -971,8 +1019,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H56"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView tabSelected="1" topLeftCell="A30" workbookViewId="0">
+      <selection activeCell="C52" sqref="C52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
@@ -1006,10 +1054,10 @@
         <v>5</v>
       </c>
       <c r="G1" s="8" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="H1" s="8" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -1020,7 +1068,7 @@
         <v>6</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="E2" s="3" t="s">
         <v>7</v>
@@ -1372,7 +1420,7 @@
         <v>44</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="D19" s="4" t="s">
         <v>45</v>
@@ -1447,13 +1495,13 @@
         <v>54</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="F22" s="2">
         <v>0</v>
       </c>
       <c r="G22" s="9" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
     </row>
     <row r="23" spans="1:7">
@@ -1467,16 +1515,16 @@
         <v>56</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>57</v>
+        <v>154</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="F23" s="2">
         <v>0</v>
       </c>
       <c r="G23" s="9" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
     </row>
     <row r="24" spans="1:7">
@@ -1484,13 +1532,13 @@
         <v>24</v>
       </c>
       <c r="B24" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="D24" s="4" t="s">
         <v>58</v>
-      </c>
-      <c r="C24" s="4" t="s">
-        <v>142</v>
-      </c>
-      <c r="D24" s="4" t="s">
-        <v>59</v>
       </c>
       <c r="E24" s="3" t="s">
         <v>7</v>
@@ -1507,13 +1555,13 @@
         <v>25</v>
       </c>
       <c r="B25" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="D25" s="5" t="s">
         <v>60</v>
-      </c>
-      <c r="C25" s="4" t="s">
-        <v>154</v>
-      </c>
-      <c r="D25" s="5" t="s">
-        <v>61</v>
       </c>
       <c r="E25" s="3" t="s">
         <v>7</v>
@@ -1530,10 +1578,10 @@
         <v>26</v>
       </c>
       <c r="B26" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="D26" s="4" t="s">
         <v>62</v>
-      </c>
-      <c r="D26" s="4" t="s">
-        <v>63</v>
       </c>
       <c r="E26" s="3" t="s">
         <v>7</v>
@@ -1550,13 +1598,13 @@
         <v>27</v>
       </c>
       <c r="B27" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="C27" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="C27" s="4" t="s">
+      <c r="D27" s="4" t="s">
         <v>65</v>
-      </c>
-      <c r="D27" s="4" t="s">
-        <v>66</v>
       </c>
       <c r="E27" s="3" t="s">
         <v>7</v>
@@ -1573,10 +1621,10 @@
         <v>28</v>
       </c>
       <c r="B28" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="D28" s="4" t="s">
         <v>67</v>
-      </c>
-      <c r="D28" s="4" t="s">
-        <v>68</v>
       </c>
       <c r="E28" s="3" t="s">
         <v>7</v>
@@ -1593,10 +1641,10 @@
         <v>29</v>
       </c>
       <c r="B29" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="D29" s="4" t="s">
         <v>69</v>
-      </c>
-      <c r="D29" s="4" t="s">
-        <v>70</v>
       </c>
       <c r="E29" s="3" t="s">
         <v>7</v>
@@ -1613,13 +1661,13 @@
         <v>30</v>
       </c>
       <c r="B30" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="C30" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="C30" s="4" t="s">
+      <c r="D30" s="4" t="s">
         <v>72</v>
-      </c>
-      <c r="D30" s="4" t="s">
-        <v>73</v>
       </c>
       <c r="E30" s="3" t="s">
         <v>7</v>
@@ -1636,13 +1684,13 @@
         <v>31</v>
       </c>
       <c r="B31" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="C31" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="C31" s="4" t="s">
+      <c r="D31" s="4" t="s">
         <v>75</v>
-      </c>
-      <c r="D31" s="4" t="s">
-        <v>76</v>
       </c>
       <c r="E31" s="3" t="s">
         <v>7</v>
@@ -1659,13 +1707,13 @@
         <v>32</v>
       </c>
       <c r="B32" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="C32" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="D32" s="4" t="s">
         <v>77</v>
-      </c>
-      <c r="C32" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="D32" s="4" t="s">
-        <v>78</v>
       </c>
       <c r="E32" s="3" t="s">
         <v>7</v>
@@ -1682,10 +1730,10 @@
         <v>33</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="D33" s="4" t="s">
         <v>54</v>
@@ -1705,13 +1753,13 @@
         <v>34</v>
       </c>
       <c r="B34" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="C34" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="D34" s="4" t="s">
         <v>80</v>
-      </c>
-      <c r="C34" s="4" t="s">
-        <v>144</v>
-      </c>
-      <c r="D34" s="4" t="s">
-        <v>81</v>
       </c>
       <c r="E34" s="3" t="s">
         <v>7</v>
@@ -1728,13 +1776,13 @@
         <v>35</v>
       </c>
       <c r="B35" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="C35" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="D35" s="4" t="s">
         <v>82</v>
-      </c>
-      <c r="C35" s="4" t="s">
-        <v>144</v>
-      </c>
-      <c r="D35" s="4" t="s">
-        <v>83</v>
       </c>
       <c r="E35" s="3" t="s">
         <v>7</v>
@@ -1751,13 +1799,13 @@
         <v>36</v>
       </c>
       <c r="B36" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="C36" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="D36" s="4" t="s">
         <v>84</v>
-      </c>
-      <c r="C36" s="4" t="s">
-        <v>145</v>
-      </c>
-      <c r="D36" s="4" t="s">
-        <v>85</v>
       </c>
       <c r="E36" s="3" t="s">
         <v>7</v>
@@ -1774,13 +1822,13 @@
         <v>37</v>
       </c>
       <c r="B37" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="C37" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="C37" s="4" t="s">
+      <c r="D37" s="4" t="s">
         <v>87</v>
-      </c>
-      <c r="D37" s="4" t="s">
-        <v>88</v>
       </c>
       <c r="E37" s="3" t="s">
         <v>7</v>
@@ -1797,13 +1845,13 @@
         <v>38</v>
       </c>
       <c r="B38" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="C38" s="6" t="s">
         <v>89</v>
       </c>
-      <c r="C38" s="6" t="s">
+      <c r="D38" s="6" t="s">
         <v>90</v>
-      </c>
-      <c r="D38" s="6" t="s">
-        <v>91</v>
       </c>
       <c r="E38" s="3" t="s">
         <v>7</v>
@@ -1820,13 +1868,13 @@
         <v>39</v>
       </c>
       <c r="B39" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="C39" s="6" t="s">
         <v>92</v>
       </c>
-      <c r="C39" s="6" t="s">
+      <c r="D39" s="6" t="s">
         <v>93</v>
-      </c>
-      <c r="D39" s="6" t="s">
-        <v>94</v>
       </c>
       <c r="E39" s="3" t="s">
         <v>7</v>
@@ -1843,13 +1891,13 @@
         <v>40</v>
       </c>
       <c r="B40" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="C40" s="6" t="s">
         <v>95</v>
       </c>
-      <c r="C40" s="6" t="s">
+      <c r="D40" s="6" t="s">
         <v>96</v>
-      </c>
-      <c r="D40" s="6" t="s">
-        <v>97</v>
       </c>
       <c r="E40" s="3" t="s">
         <v>7</v>
@@ -1866,13 +1914,13 @@
         <v>41</v>
       </c>
       <c r="B41" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="C41" s="6" t="s">
         <v>98</v>
       </c>
-      <c r="C41" s="6" t="s">
+      <c r="D41" s="6" t="s">
         <v>99</v>
-      </c>
-      <c r="D41" s="6" t="s">
-        <v>100</v>
       </c>
       <c r="E41" s="3" t="s">
         <v>7</v>
@@ -1889,13 +1937,13 @@
         <v>42</v>
       </c>
       <c r="B42" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="C42" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="D42" s="6" t="s">
         <v>101</v>
-      </c>
-      <c r="C42" s="6" t="s">
-        <v>146</v>
-      </c>
-      <c r="D42" s="6" t="s">
-        <v>102</v>
       </c>
       <c r="E42" s="3" t="s">
         <v>7</v>
@@ -1912,13 +1960,13 @@
         <v>43</v>
       </c>
       <c r="B43" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="C43" s="6" t="s">
         <v>103</v>
       </c>
-      <c r="C43" s="6" t="s">
+      <c r="D43" s="6" t="s">
         <v>104</v>
-      </c>
-      <c r="D43" s="6" t="s">
-        <v>105</v>
       </c>
       <c r="E43" s="3" t="s">
         <v>7</v>
@@ -1935,13 +1983,13 @@
         <v>44</v>
       </c>
       <c r="B44" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="C44" s="6" t="s">
+        <v>149</v>
+      </c>
+      <c r="D44" s="6" t="s">
         <v>106</v>
-      </c>
-      <c r="C44" s="6" t="s">
-        <v>153</v>
-      </c>
-      <c r="D44" s="6" t="s">
-        <v>107</v>
       </c>
       <c r="E44" s="3" t="s">
         <v>7</v>
@@ -1959,10 +2007,10 @@
         <v>45</v>
       </c>
       <c r="B45" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="D45" s="6" t="s">
         <v>108</v>
-      </c>
-      <c r="D45" s="6" t="s">
-        <v>109</v>
       </c>
       <c r="E45" s="3" t="s">
         <v>7</v>
@@ -1979,14 +2027,14 @@
         <v>46</v>
       </c>
       <c r="B46" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="C46" s="6" t="s">
         <v>110</v>
       </c>
-      <c r="C46" s="6" t="s">
+      <c r="D46" s="6" t="s">
         <v>111</v>
       </c>
-      <c r="D46" s="6" t="s">
-        <v>112</v>
-      </c>
       <c r="E46" s="3" t="s">
         <v>7</v>
       </c>
@@ -1997,7 +2045,7 @@
         <v>8</v>
       </c>
       <c r="H46" s="9" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -2005,10 +2053,10 @@
         <v>47</v>
       </c>
       <c r="B47" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="D47" s="6" t="s">
         <v>113</v>
-      </c>
-      <c r="D47" s="6" t="s">
-        <v>114</v>
       </c>
       <c r="E47" s="3" t="s">
         <v>7</v>
@@ -2025,13 +2073,13 @@
         <v>48</v>
       </c>
       <c r="B48" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="C48" s="6" t="s">
         <v>115</v>
       </c>
-      <c r="C48" s="6" t="s">
-        <v>116</v>
-      </c>
       <c r="D48" s="6" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E48" s="3" t="s">
         <v>7</v>
@@ -2043,7 +2091,7 @@
         <v>8</v>
       </c>
       <c r="H48" s="9" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -2051,14 +2099,14 @@
         <v>49</v>
       </c>
       <c r="B49" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="C49" s="6" t="s">
         <v>117</v>
       </c>
-      <c r="C49" s="6" t="s">
+      <c r="D49" s="6" t="s">
         <v>118</v>
       </c>
-      <c r="D49" s="6" t="s">
-        <v>119</v>
-      </c>
       <c r="E49" s="3" t="s">
         <v>7</v>
       </c>
@@ -2069,7 +2117,7 @@
         <v>8</v>
       </c>
       <c r="H49" s="9" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -2077,10 +2125,13 @@
         <v>50</v>
       </c>
       <c r="B50" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="C50" s="9" t="s">
+        <v>155</v>
+      </c>
+      <c r="D50" s="5" t="s">
         <v>120</v>
-      </c>
-      <c r="D50" s="5" t="s">
-        <v>121</v>
       </c>
       <c r="E50" s="3" t="s">
         <v>7</v>
@@ -2097,13 +2148,13 @@
         <v>51</v>
       </c>
       <c r="B51" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="C51" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="D51" s="5" t="s">
         <v>122</v>
-      </c>
-      <c r="C51" s="5" t="s">
-        <v>123</v>
-      </c>
-      <c r="D51" s="5" t="s">
-        <v>124</v>
       </c>
       <c r="E51" s="3" t="s">
         <v>7</v>
@@ -2120,13 +2171,13 @@
         <v>52</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C52" s="5" t="s">
-        <v>126</v>
+        <v>156</v>
       </c>
       <c r="D52" s="5" t="s">
-        <v>127</v>
+        <v>153</v>
       </c>
       <c r="E52" s="3" t="s">
         <v>7</v>
@@ -2143,13 +2194,13 @@
         <v>53</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="C53" s="5" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="D53" s="5" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="E53" s="3" t="s">
         <v>7</v>
@@ -2166,13 +2217,13 @@
         <v>54</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="C54" s="5" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="D54" s="3" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="E54" s="3" t="s">
         <v>7</v>
@@ -2189,13 +2240,13 @@
         <v>55</v>
       </c>
       <c r="B55" s="7" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="C55" s="5" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="D55" s="3" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="E55" s="3" t="s">
         <v>7</v>
@@ -2212,13 +2263,13 @@
         <v>56</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="C56" s="5" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="D56" s="3" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="E56" s="3" t="s">
         <v>7</v>
